--- a/INTLINE/data/566/BSP/INTERNATIONAL RESERVES_historical.xlsx
+++ b/INTLINE/data/566/BSP/INTERNATIONAL RESERVES_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="790">
   <si>
     <t>1957-01</t>
   </si>
@@ -2366,6 +2366,9 @@
   </si>
   <si>
     <t>2022-04</t>
+  </si>
+  <si>
+    <t>2022-05</t>
   </si>
   <si>
     <t>Foreign Exchange</t>
@@ -2738,13 +2741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ADE6"/>
+  <dimension ref="A1:ADF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:785">
+    <row r="1" spans="1:786">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5097,10 +5100,13 @@
       <c r="ADE1" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="ADF1" s="1" t="s">
+        <v>784</v>
+      </c>
     </row>
-    <row r="2" spans="1:785">
+    <row r="2" spans="1:786">
       <c r="A2" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AL2">
         <v>60.38</v>
@@ -7346,10 +7352,13 @@
       <c r="ADE2">
         <v>2012.02917141</v>
       </c>
+      <c r="ADF2">
+        <v>2074.94552986</v>
+      </c>
     </row>
-    <row r="3" spans="1:785">
+    <row r="3" spans="1:786">
       <c r="A3" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="FN3">
         <v>181.74</v>
@@ -9199,10 +9208,13 @@
       <c r="ADE3">
         <v>89562.31190944994</v>
       </c>
+      <c r="ADF3">
+        <v>87874.80515449995</v>
+      </c>
     </row>
-    <row r="4" spans="1:785">
+    <row r="4" spans="1:786">
       <c r="A4" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -11448,10 +11460,13 @@
       <c r="ADE4">
         <v>3783.411668430001</v>
       </c>
+      <c r="ADF4">
+        <v>3783.896119200001</v>
+      </c>
     </row>
-    <row r="5" spans="1:785">
+    <row r="5" spans="1:786">
       <c r="A5" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -13805,10 +13820,13 @@
       <c r="ADE5">
         <v>9277.46793329</v>
       </c>
+      <c r="ADF5">
+        <v>9026.825580980001</v>
+      </c>
     </row>
-    <row r="6" spans="1:785">
+    <row r="6" spans="1:786">
       <c r="A6" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B6">
         <v>149</v>
@@ -16161,6 +16179,9 @@
       </c>
       <c r="ADE6">
         <v>105400.45439566</v>
+      </c>
+      <c r="ADF6">
+        <v>103528.7555312</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/566/BSP/INTERNATIONAL RESERVES_historical.xlsx
+++ b/INTLINE/data/566/BSP/INTERNATIONAL RESERVES_historical.xlsx
@@ -6580,7 +6580,7 @@
         <v>2012.02917141</v>
       </c>
       <c r="ADF2" t="n">
-        <v>2074.94552986</v>
+        <v>2098.03086833</v>
       </c>
     </row>
     <row r="3">
@@ -8606,7 +8606,7 @@
         <v>89562.31190944994</v>
       </c>
       <c r="ADF3" t="n">
-        <v>87874.80515449995</v>
+        <v>87954.62939220997</v>
       </c>
     </row>
     <row r="4">
@@ -10896,7 +10896,7 @@
         <v>3783.411668430001</v>
       </c>
       <c r="ADF4" t="n">
-        <v>3783.896119200001</v>
+        <v>3799.095882130001</v>
       </c>
     </row>
     <row r="5">
@@ -13258,7 +13258,7 @@
         <v>9277.46793329</v>
       </c>
       <c r="ADF5" t="n">
-        <v>9026.825580980001</v>
+        <v>9026.825580979999</v>
       </c>
     </row>
     <row r="6">
@@ -15620,7 +15620,7 @@
         <v>105400.45439566</v>
       </c>
       <c r="ADF6" t="n">
-        <v>103528.7555312</v>
+        <v>103646.88935032</v>
       </c>
     </row>
   </sheetData>
